--- a/static/items.xlsx
+++ b/static/items.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\файлы для тестов Алексей\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\файлы скрипта с сервера\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDB6BE1-D6C7-4C84-91B6-B9196FC614C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E218F7-5A4D-4745-8FF1-11F2E708E99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="3450" windowWidth="18825" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8445" yWindow="2070" windowWidth="16635" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -39,22 +39,13 @@
     <t>Sleep</t>
   </si>
   <si>
-    <t>def; 0.15-0.18</t>
-  </si>
-  <si>
-    <t>SSG 08 | Abyss (Field-Tested)</t>
-  </si>
-  <si>
-    <t>0-23;0-23.58</t>
-  </si>
-  <si>
-    <t>Glock-18 | High Beam (Factory New)</t>
-  </si>
-  <si>
-    <t>def;0-0.01</t>
-  </si>
-  <si>
-    <t>0-17.49;0-17.58</t>
+    <t>Souvenir SSG 08 | Jungle Dashed (Battle-Scarred)</t>
+  </si>
+  <si>
+    <t>def;0.45-0.46</t>
+  </si>
+  <si>
+    <t>0-0.8;0-0.1</t>
   </si>
 </sst>
 </file>
@@ -381,17 +372,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="1" max="1" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -410,31 +402,20 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -567,18 +548,6 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/static/items.xlsx
+++ b/static/items.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\файлы скрипта с сервера\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E218F7-5A4D-4745-8FF1-11F2E708E99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D53C61-31A0-44D5-BF5A-02B8BA9CA63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8445" yWindow="2070" windowWidth="16635" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15615" yWindow="-1365" windowWidth="15570" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,26 +42,20 @@
     <t>Souvenir SSG 08 | Jungle Dashed (Battle-Scarred)</t>
   </si>
   <si>
-    <t>def;0.45-0.46</t>
-  </si>
-  <si>
-    <t>0-0.8;0-0.1</t>
+    <t>0-0.1;0-0.95</t>
+  </si>
+  <si>
+    <t>def; 0.45-0.47</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,7 +149,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -190,7 +184,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -372,18 +366,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -405,152 +399,19 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/static/items.xlsx
+++ b/static/items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\файлы скрипта с сервера\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D53C61-31A0-44D5-BF5A-02B8BA9CA63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADAFE88-31C0-4FE6-A325-F9ADDF53CFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15615" yWindow="-1365" windowWidth="15570" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15900" yWindow="1995" windowWidth="15570" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,10 @@
     <t>Souvenir SSG 08 | Jungle Dashed (Battle-Scarred)</t>
   </si>
   <si>
-    <t>0-0.1;0-0.95</t>
-  </si>
-  <si>
     <t>def; 0.45-0.47</t>
+  </si>
+  <si>
+    <t>0-0;0-1.03</t>
   </si>
 </sst>
 </file>
@@ -369,14 +369,14 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -399,13 +399,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">

--- a/static/items.xlsx
+++ b/static/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\файлы скрипта с сервера\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADAFE88-31C0-4FE6-A325-F9ADDF53CFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D583EAAF-18DC-41C9-B359-5F0E21F6FDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15900" yWindow="1995" windowWidth="15570" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,13 +39,13 @@
     <t>Sleep</t>
   </si>
   <si>
-    <t>Souvenir SSG 08 | Jungle Dashed (Battle-Scarred)</t>
-  </si>
-  <si>
-    <t>def; 0.45-0.47</t>
-  </si>
-  <si>
-    <t>0-0;0-1.03</t>
+    <t>def; 0.45-0.46</t>
+  </si>
+  <si>
+    <t>MAG-7 | Rust Coat (Well-Worn)</t>
+  </si>
+  <si>
+    <t>0-0.88;0-0</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,10 +396,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -413,5 +413,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/static/items.xlsx
+++ b/static/items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\файлы скрипта с сервера\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D583EAAF-18DC-41C9-B359-5F0E21F6FDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7610A0-4147-48A7-9F21-29F7E2CDA420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15900" yWindow="1995" windowWidth="15570" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15570" yWindow="-6780" windowWidth="15570" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,13 @@
     <t>Sleep</t>
   </si>
   <si>
-    <t>def; 0.45-0.46</t>
-  </si>
-  <si>
-    <t>MAG-7 | Rust Coat (Well-Worn)</t>
-  </si>
-  <si>
-    <t>0-0.88;0-0</t>
+    <t>Souvenir MAG-7 | Navy Sheen (Battle-Scarred)</t>
+  </si>
+  <si>
+    <t>def; 0.45-0.451</t>
+  </si>
+  <si>
+    <t>0-0;0-0.8</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,10 +396,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>

--- a/static/items.xlsx
+++ b/static/items.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\файлы скрипта с сервера\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7610A0-4147-48A7-9F21-29F7E2CDA420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF597F0-91B6-47CA-B9E1-D3D6FCE46386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15570" yWindow="-6780" windowWidth="15570" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15345" yWindow="1170" windowWidth="15570" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,26 +39,43 @@
     <t>Sleep</t>
   </si>
   <si>
-    <t>Souvenir MAG-7 | Navy Sheen (Battle-Scarred)</t>
-  </si>
-  <si>
-    <t>def; 0.45-0.451</t>
-  </si>
-  <si>
-    <t>0-0;0-0.8</t>
+    <t>M4A4 | Poly Mag (Field-Tested)</t>
+  </si>
+  <si>
+    <t>def; 0.15-0.23</t>
+  </si>
+  <si>
+    <t>0-0;0-5.95</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,9 +98,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -149,7 +170,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -184,7 +205,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -366,18 +387,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -395,24 +415,156 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>2</v>
       </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
     </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>